--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Ictus.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Ictus.xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.87104878245525</v>
+        <v>25.87104878245526</v>
       </c>
       <c r="B3" t="n">
-        <v>18.7381643512611</v>
+        <v>18.73816435126109</v>
       </c>
       <c r="C3" t="n">
         <v>32.69342635225608</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.61477141711192</v>
+        <v>23.61477141711193</v>
       </c>
       <c r="B4" t="n">
         <v>16.80199573811241</v>
@@ -488,7 +488,7 @@
         <v>27.85903212623111</v>
       </c>
       <c r="B5" t="n">
-        <v>20.13950928222156</v>
+        <v>20.13950928222155</v>
       </c>
       <c r="C5" t="n">
         <v>35.75606815758456</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.954196408481392</v>
+        <v>7.954196408481389</v>
       </c>
       <c r="B8" t="n">
-        <v>3.968895451857914</v>
+        <v>3.968895451857925</v>
       </c>
       <c r="C8" t="n">
         <v>12.81574527491127</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.969245956491337</v>
+        <v>8.969245956491333</v>
       </c>
       <c r="B10" t="n">
-        <v>4.783264760357033</v>
+        <v>4.783264760357044</v>
       </c>
       <c r="C10" t="n">
         <v>14.36540965001265</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.1934597534171</v>
+        <v>14.19345975341709</v>
       </c>
       <c r="B13" t="n">
-        <v>8.745652874600481</v>
+        <v>8.745652874600486</v>
       </c>
       <c r="C13" t="n">
         <v>21.44637542672812</v>
@@ -587,7 +587,7 @@
         <v>15.42766827870981</v>
       </c>
       <c r="B14" t="n">
-        <v>9.829553231577083</v>
+        <v>9.829553231577087</v>
       </c>
       <c r="C14" t="n">
         <v>22.38982861116186</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>29.84701547000695</v>
+        <v>29.84701547000696</v>
       </c>
       <c r="B15" t="n">
-        <v>21.54085421318202</v>
+        <v>21.540854213182</v>
       </c>
       <c r="C15" t="n">
         <v>38.81870996291305</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24.37556552763573</v>
+        <v>24.37556552763574</v>
       </c>
       <c r="B16" t="n">
-        <v>17.15733925976923</v>
+        <v>17.15733925976922</v>
       </c>
       <c r="C16" t="n">
         <v>32.3194974136157</v>
@@ -620,7 +620,7 @@
         <v>24.10025221402758</v>
       </c>
       <c r="B17" t="n">
-        <v>16.58461662990804</v>
+        <v>16.58461662990803</v>
       </c>
       <c r="C17" t="n">
         <v>32.87679267778429</v>
@@ -631,7 +631,7 @@
         <v>23.60073283303058</v>
       </c>
       <c r="B18" t="n">
-        <v>16.72619784276649</v>
+        <v>16.72619784276648</v>
       </c>
       <c r="C18" t="n">
         <v>30.18196532028382</v>
@@ -664,7 +664,7 @@
         <v>27.60477668874497</v>
       </c>
       <c r="B21" t="n">
-        <v>19.68048349537926</v>
+        <v>19.68048349537925</v>
       </c>
       <c r="C21" t="n">
         <v>36.3317068941903</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.970256920419935</v>
+        <v>9.970256920419931</v>
       </c>
       <c r="B22" t="n">
-        <v>5.521836173510226</v>
+        <v>5.521836173510235</v>
       </c>
       <c r="C22" t="n">
         <v>15.90284504348927</v>
@@ -686,7 +686,7 @@
         <v>30.81292997373219</v>
       </c>
       <c r="B23" t="n">
-        <v>22.08993088797039</v>
+        <v>22.08993088797038</v>
       </c>
       <c r="C23" t="n">
         <v>40.32557290232777</v>
@@ -708,7 +708,7 @@
         <v>22.38056289181921</v>
       </c>
       <c r="B25" t="n">
-        <v>15.71809538113581</v>
+        <v>15.7180953811358</v>
       </c>
       <c r="C25" t="n">
         <v>29.25074111747484</v>
@@ -719,7 +719,7 @@
         <v>27.57669952058228</v>
       </c>
       <c r="B26" t="n">
-        <v>19.5288877046874</v>
+        <v>19.52888770468739</v>
       </c>
       <c r="C26" t="n">
         <v>36.30724893094079</v>
@@ -730,7 +730,7 @@
         <v>16.1674045131116</v>
       </c>
       <c r="B27" t="n">
-        <v>10.07119991021501</v>
+        <v>10.07119991021502</v>
       </c>
       <c r="C27" t="n">
         <v>24.49678825043184</v>
@@ -752,7 +752,7 @@
         <v>31.80692164562011</v>
       </c>
       <c r="B29" t="n">
-        <v>22.79060335345062</v>
+        <v>22.79060335345061</v>
       </c>
       <c r="C29" t="n">
         <v>41.85689380499201</v>
@@ -774,7 +774,7 @@
         <v>14.41261873069987</v>
       </c>
       <c r="B31" t="n">
-        <v>9.015183923077963</v>
+        <v>9.01518392307797</v>
       </c>
       <c r="C31" t="n">
         <v>20.84016423606048</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.218504029794</v>
+        <v>11.21850402979399</v>
       </c>
       <c r="B32" t="n">
-        <v>6.681534425832756</v>
+        <v>6.681534425832763</v>
       </c>
       <c r="C32" t="n">
         <v>16.85852720954778</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15.43468757075049</v>
+        <v>15.43468757075048</v>
       </c>
       <c r="B33" t="n">
-        <v>9.867452179250048</v>
+        <v>9.867452179250051</v>
       </c>
       <c r="C33" t="n">
         <v>22.39594310197424</v>
@@ -818,7 +818,7 @@
         <v>25.36955719952366</v>
       </c>
       <c r="B35" t="n">
-        <v>17.85801172524946</v>
+        <v>17.85801172524945</v>
       </c>
       <c r="C35" t="n">
         <v>33.85081831627994</v>
@@ -840,7 +840,7 @@
         <v>28.58472977655155</v>
       </c>
       <c r="B37" t="n">
-        <v>20.30535806551356</v>
+        <v>20.30535806551355</v>
       </c>
       <c r="C37" t="n">
         <v>37.85079881522979</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25.11530176203752</v>
+        <v>25.11530176203753</v>
       </c>
       <c r="B39" t="n">
-        <v>17.39898593840716</v>
+        <v>17.39898593840715</v>
       </c>
       <c r="C39" t="n">
         <v>34.42645705288568</v>
@@ -917,7 +917,7 @@
         <v>14.68793204430802</v>
       </c>
       <c r="B44" t="n">
-        <v>9.587906552939156</v>
+        <v>9.58790655293916</v>
       </c>
       <c r="C44" t="n">
         <v>20.28286897189188</v>
@@ -939,7 +939,7 @@
         <v>13.41862705881194</v>
       </c>
       <c r="B46" t="n">
-        <v>8.314511457597735</v>
+        <v>8.314511457597742</v>
       </c>
       <c r="C46" t="n">
         <v>19.30884333339624</v>
@@ -950,7 +950,7 @@
         <v>10.94319071618584</v>
       </c>
       <c r="B47" t="n">
-        <v>6.108811795971564</v>
+        <v>6.108811795971574</v>
       </c>
       <c r="C47" t="n">
         <v>17.41582247371637</v>
@@ -961,7 +961,7 @@
         <v>24.11429079810893</v>
       </c>
       <c r="B48" t="n">
-        <v>16.66041452525397</v>
+        <v>16.66041452525396</v>
       </c>
       <c r="C48" t="n">
         <v>32.88902165940905</v>
@@ -972,7 +972,7 @@
         <v>24.62982096512187</v>
       </c>
       <c r="B49" t="n">
-        <v>17.61636504661153</v>
+        <v>17.61636504661152</v>
       </c>
       <c r="C49" t="n">
         <v>31.74385867700996</v>
@@ -983,7 +983,7 @@
         <v>28.5987683606329</v>
       </c>
       <c r="B50" t="n">
-        <v>20.38115596085948</v>
+        <v>20.38115596085947</v>
       </c>
       <c r="C50" t="n">
         <v>37.86302779685455</v>
@@ -994,7 +994,7 @@
         <v>25.85701019837391</v>
       </c>
       <c r="B51" t="n">
-        <v>18.66236645591517</v>
+        <v>18.66236645591516</v>
       </c>
       <c r="C51" t="n">
         <v>32.68119737063132</v>
@@ -1005,7 +1005,7 @@
         <v>12.45271255508671</v>
       </c>
       <c r="B52" t="n">
-        <v>7.76543478280936</v>
+        <v>7.765434782809365</v>
       </c>
       <c r="C52" t="n">
         <v>17.80198039398152</v>
@@ -1016,7 +1016,7 @@
         <v>25.0942438859155</v>
       </c>
       <c r="B53" t="n">
-        <v>17.28528909538827</v>
+        <v>17.28528909538826</v>
       </c>
       <c r="C53" t="n">
         <v>34.40811358044854</v>
@@ -1027,7 +1027,7 @@
         <v>29.83297688592561</v>
       </c>
       <c r="B54" t="n">
-        <v>21.46505631783609</v>
+        <v>21.46505631783608</v>
       </c>
       <c r="C54" t="n">
         <v>38.80648098128829</v>
@@ -1049,7 +1049,7 @@
         <v>14.44771519090323</v>
       </c>
       <c r="B56" t="n">
-        <v>9.204678661442781</v>
+        <v>9.204678661442784</v>
       </c>
       <c r="C56" t="n">
         <v>20.87073669012238</v>
@@ -1060,7 +1060,7 @@
         <v>11.21148473775332</v>
       </c>
       <c r="B57" t="n">
-        <v>6.643635478159792</v>
+        <v>6.643635478159799</v>
       </c>
       <c r="C57" t="n">
         <v>16.85241271873539</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28.57771048451087</v>
+        <v>28.57771048451088</v>
       </c>
       <c r="B58" t="n">
         <v>20.26745911784059</v>
@@ -1082,7 +1082,7 @@
         <v>16.65485751196185</v>
       </c>
       <c r="B59" t="n">
-        <v>10.87555464088072</v>
+        <v>10.87555464088073</v>
       </c>
       <c r="C59" t="n">
         <v>23.32716730478322</v>
@@ -1093,7 +1093,7 @@
         <v>30.83398784985421</v>
       </c>
       <c r="B60" t="n">
-        <v>22.20362773098928</v>
+        <v>22.20362773098927</v>
       </c>
       <c r="C60" t="n">
         <v>40.34391637476491</v>
@@ -1104,7 +1104,7 @@
         <v>16.42165995059774</v>
       </c>
       <c r="B61" t="n">
-        <v>10.53022569705731</v>
+        <v>10.53022569705732</v>
       </c>
       <c r="C61" t="n">
         <v>23.9211495138261</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17.6699070599718</v>
+        <v>17.66990705997179</v>
       </c>
       <c r="B62" t="n">
         <v>11.68992394937984</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18.40964329437359</v>
+        <v>18.40964329437358</v>
       </c>
       <c r="B63" t="n">
         <v>11.93157062801777</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.82696855781353</v>
+        <v>30.82696855781354</v>
       </c>
       <c r="B64" t="n">
-        <v>22.16572878331632</v>
+        <v>22.1657287833163</v>
       </c>
       <c r="C64" t="n">
         <v>40.33780188395253</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.21047377382473</v>
+        <v>10.21047377382472</v>
       </c>
       <c r="B65" t="n">
-        <v>5.9050640650066</v>
+        <v>5.905064065006608</v>
       </c>
       <c r="C65" t="n">
         <v>15.31497732525877</v>
@@ -1159,7 +1159,7 @@
         <v>21.89310989296896</v>
       </c>
       <c r="B66" t="n">
-        <v>14.9137406504701</v>
+        <v>14.91374065047009</v>
       </c>
       <c r="C66" t="n">
         <v>30.42036206312345</v>
@@ -1181,7 +1181,7 @@
         <v>26.61780430889772</v>
       </c>
       <c r="B68" t="n">
-        <v>19.01770997757199</v>
+        <v>19.01770997757198</v>
       </c>
       <c r="C68" t="n">
         <v>34.80650048233844</v>
@@ -1192,7 +1192,7 @@
         <v>10.96424859230786</v>
       </c>
       <c r="B69" t="n">
-        <v>6.222508638990455</v>
+        <v>6.222508638990464</v>
       </c>
       <c r="C69" t="n">
         <v>17.43416594615351</v>
@@ -1203,7 +1203,7 @@
         <v>25.5957354688471</v>
       </c>
       <c r="B70" t="n">
-        <v>18.16544172139991</v>
+        <v>18.1654417213999</v>
       </c>
       <c r="C70" t="n">
         <v>33.25072161642468</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.15135173070997</v>
+        <v>19.15135173070998</v>
       </c>
       <c r="B71" t="n">
         <v>13.19495114552578</v>
@@ -1225,7 +1225,7 @@
         <v>21.1463543665265</v>
       </c>
       <c r="B72" t="n">
-        <v>14.63419502415921</v>
+        <v>14.6341950241592</v>
       </c>
       <c r="C72" t="n">
         <v>28.3072879330411</v>
